--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value386.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value386.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9999289058718295</v>
+        <v>2.453991889953613</v>
       </c>
       <c r="B1">
-        <v>1.541498700922558</v>
+        <v>3.219793081283569</v>
       </c>
       <c r="C1">
-        <v>1.798708670523332</v>
+        <v>2.713232517242432</v>
       </c>
       <c r="D1">
-        <v>2.055315640501172</v>
+        <v>2.077782392501831</v>
       </c>
       <c r="E1">
-        <v>2.614115909239175</v>
+        <v>1.251464128494263</v>
       </c>
     </row>
   </sheetData>
